--- a/CE/sezon.xlsx
+++ b/CE/sezon.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>дата</t>
+  </si>
+  <si>
+    <t>деньги</t>
+  </si>
+  <si>
+    <t>р.д.</t>
+  </si>
+  <si>
+    <t>деньги р.д.</t>
   </si>
   <si>
     <t>share</t>
@@ -380,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,133 +405,250 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>46446994.41938</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>3096466.294625334</v>
+      </c>
+      <c r="E2">
         <v>0.08338517921593125</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>55108224.13869087</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2900432.849404783</v>
+      </c>
+      <c r="E3">
         <v>0.07810616681705417</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>-0.05279012398877084</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>69785965.87170143</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>3172089.357804611</v>
+      </c>
+      <c r="E4">
         <v>0.08542164339027315</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>0.07315476573218987</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>64395132.48357998</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>2927051.476526363</v>
+      </c>
+      <c r="E5">
         <v>0.07882298359522084</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>-0.06598659795052308</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>49881328.34921419</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2625333.071011273</v>
+      </c>
+      <c r="E6">
         <v>0.07069796593871025</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>-0.08125017656510594</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>61544683.41132622</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2930699.210063153</v>
+      </c>
+      <c r="E7">
         <v>0.07892121392804416</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>0.08223247989333909</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>60976605.94624763</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>2771663.906647619</v>
+      </c>
+      <c r="E8">
         <v>0.07463852972767605</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>-0.04282684200368106</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>59690991.98145983</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>2713226.908248174</v>
+      </c>
+      <c r="E9">
         <v>0.07306487152482827</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>-0.01573658202847786</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>65127643.73198222</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2960347.442362828</v>
+      </c>
+      <c r="E10">
         <v>0.07971961537295415</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>0.0665474384812588</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>64849958.50585174</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>3088093.262183416</v>
+      </c>
+      <c r="E11">
         <v>0.08315970063992932</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>0.03440085266975174</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>68232477.21095584</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>3411623.860547792</v>
+      </c>
+      <c r="E12">
         <v>0.09187210192563916</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>0.08712401285709839</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>99824222.2944551</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>4537464.649747959</v>
+      </c>
+      <c r="E13">
         <v>0.1221900279237391</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>0.3031792599809989</v>
       </c>
     </row>
